--- a/IBP_TODO_AGILE.xlsx
+++ b/IBP_TODO_AGILE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimth\OneDrive\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA08807-3100-4516-BC99-3CBB391F4410}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085265C5-6262-46BD-80FD-64A29DC93C61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9510" xr2:uid="{25BE3D72-9583-421F-B10C-2534E98C2DAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>sprint</t>
   </si>
@@ -93,10 +93,6 @@
     <t>run cbust on RSAT and Homer output</t>
   </si>
   <si>
-    <t xml:space="preserve">write a parsing script that takes the cluster buster output and produces an feature matrix
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daphne mentioned we should pick up the 'CRM score' as an overall score for a motif&lt;-&gt; enhancer pair
 </t>
   </si>
@@ -123,6 +119,13 @@
   </si>
   <si>
     <t>archive/clean up the result from the first dataset on github, so we don't get confused</t>
+  </si>
+  <si>
+    <t>to be started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write a parsing script that takes the cluster buster output and produces a feature matrix
+</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +612,12 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="3">
         <v>43402</v>
       </c>
@@ -645,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -702,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/IBP_TODO_AGILE.xlsx
+++ b/IBP_TODO_AGILE.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085265C5-6262-46BD-80FD-64A29DC93C61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F0EB9-B684-459E-B12E-E65C38E0363E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9510" xr2:uid="{25BE3D72-9583-421F-B10C-2534E98C2DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>sprint</t>
   </si>
@@ -97,9 +100,6 @@
 </t>
   </si>
   <si>
-    <t>make the actual feature matrix with our data, and maybe also send it to Daphne + Ibrahim</t>
-  </si>
-  <si>
     <t>this will be a huge matrix because of the many motives
 the BORUTA package will boil this down to 10-20 motives</t>
   </si>
@@ -121,18 +121,27 @@
     <t>archive/clean up the result from the first dataset on github, so we don't get confused</t>
   </si>
   <si>
-    <t>to be started</t>
-  </si>
-  <si>
     <t xml:space="preserve">write a parsing script that takes the cluster buster output and produces a feature matrix
 </t>
+  </si>
+  <si>
+    <t>Btw, Ibrahim mentioned that you can also start preparing the sequences for the deep learning models. Basically, you just have to make sure they all have the same length and are accompanied by a label</t>
+  </si>
+  <si>
+    <t>use I cis target (find motifs, and parse so cbust can run on it)</t>
+  </si>
+  <si>
+    <t>make the final feature matrix with all of our data combined, and maybe also send it to Daphne + Ibrahim</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +151,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -188,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5617DE44-3A58-4DB0-8A19-17F2E47B225D}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3">
         <v>43402</v>
@@ -649,72 +669,98 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{252457ED-7651-4C09-8C96-138704DB7DB7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>